--- a/05_Entregable 3/previo/Diccionarios/MD_18_UPMA_RESCATE DE FAUNA SILVESTRE 2019 AL 2024.xlsx
+++ b/05_Entregable 3/previo/Diccionarios/MD_18_UPMA_RESCATE DE FAUNA SILVESTRE 2019 AL 2024.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Disco_F\!!Personal\Mio\1_WCS 2024\wcs\04_Entregable 2\previo\jans\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Javi_Angelito\wcs\05_Entregable 3\previo\Diccionarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3D5122-74F0-4689-8C0A-2FDD83257E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadatos generales" sheetId="1" r:id="rId1"/>
-    <sheet name="02_1_general" sheetId="4" r:id="rId2"/>
-    <sheet name="02_1_diccionario" sheetId="3" r:id="rId3"/>
+    <sheet name="18_1_general" sheetId="4" r:id="rId2"/>
+    <sheet name="18_1_diccionario" sheetId="3" r:id="rId3"/>
     <sheet name="Comparativa bases anuales" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -27,12 +28,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -49,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -66,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="0" shapeId="0">
+    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -83,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="0" shapeId="0">
+    <comment ref="K4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -105,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="131">
   <si>
     <t>Elemento</t>
   </si>
@@ -140,9 +141,6 @@
     <t>1.0</t>
   </si>
   <si>
-    <t>Nombre de la variable</t>
-  </si>
-  <si>
     <t>Definición</t>
   </si>
   <si>
@@ -495,12 +493,18 @@
   </si>
   <si>
     <t>(?)</t>
+  </si>
+  <si>
+    <t>Nombre actual</t>
+  </si>
+  <si>
+    <t>Nombre propuesto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
@@ -966,7 +970,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1034,7 +1038,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1049,101 +1053,101 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="8">
         <v>45689</v>
@@ -1151,10 +1155,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1163,610 +1167,637 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E10" sqref="E10"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.85546875" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" s="27" t="s">
+      <c r="B4" s="27"/>
+      <c r="C4" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="I4" s="27"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="I6" s="27"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="I8" s="27"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="I9" s="27"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="I10" s="27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="F2" s="27" t="s">
+      <c r="E11" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="I11" s="27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="H12" s="27">
+        <v>0.95684967930316001</v>
+      </c>
+      <c r="I12" s="27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="H13" s="27">
+        <v>-79.630504846571995</v>
+      </c>
+      <c r="I13" s="27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="27" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="28" t="s">
+      <c r="H14" s="29">
+        <v>43583</v>
+      </c>
+      <c r="I14" s="27"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="I15" s="27"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="I16" s="27"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="27">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="I17" s="27"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="27">
+        <v>0.625</v>
+      </c>
+      <c r="I18" s="27"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="27">
+        <v>1</v>
+      </c>
+      <c r="I19" s="27"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="27"/>
+      <c r="C20" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="G3" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="H3" s="27" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="G4" s="27" t="s">
+      <c r="G20" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="H4" s="27"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="G6" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="H6" s="27"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="H8" s="27"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="H9" s="27"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="G10" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="H10" s="27" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="H11" s="27" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="G12" s="27">
-        <v>0.95684967930316001</v>
-      </c>
-      <c r="H12" s="27" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="G13" s="27">
-        <v>-79.630504846571995</v>
-      </c>
-      <c r="H13" s="27" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="27" t="s">
+      <c r="I20" s="27"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="G21" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="29">
-        <v>43583</v>
-      </c>
-      <c r="H14" s="27"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="F15" s="27" t="s">
+      <c r="H21" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="I21" s="27"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="27"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="G22" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="H15" s="27"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="27" t="s">
+      <c r="H22" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="I22" s="27"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="27"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="I23" s="27"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="27"/>
+      <c r="C24" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="F16" s="27" t="s">
+      <c r="F24" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="H16" s="27"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="27">
-        <v>0.51388888888888895</v>
-      </c>
-      <c r="H17" s="27"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" s="27">
-        <v>0.625</v>
-      </c>
-      <c r="H18" s="27"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" s="27">
-        <v>1</v>
-      </c>
-      <c r="H19" s="27"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="F20" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20" s="27" t="s">
+      <c r="H24" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="H20" s="27"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="F21" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="H21" s="27"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="F22" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="H22" s="27"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="F23" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="G23" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="H23" s="27"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="G24" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1775,7 +1806,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
@@ -1792,71 +1823,71 @@
         <v>2019</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="J1" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="K1" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="L1" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="M1" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="N1" s="19" t="s">
         <v>56</v>
-      </c>
-      <c r="N1" s="19" t="s">
-        <v>57</v>
       </c>
       <c r="O1" s="12"/>
       <c r="P1" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q1" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="R1" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="S1" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="S1" s="24" t="s">
+      <c r="T1" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="U1" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="U1" s="16" t="s">
+      <c r="V1" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="V1" s="17" t="s">
+      <c r="W1" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="X1" s="16" t="s">
         <v>65</v>
-      </c>
-      <c r="X1" s="16" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="45" x14ac:dyDescent="0.25">
@@ -1864,71 +1895,71 @@
         <v>2020</v>
       </c>
       <c r="B2" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="16" t="s">
+      <c r="E2" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="F2" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="17" t="s">
+      <c r="H2" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="I2" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="J2" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="K2" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="L2" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="M2" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="N2" s="19" t="s">
         <v>56</v>
-      </c>
-      <c r="N2" s="19" t="s">
-        <v>57</v>
       </c>
       <c r="O2" s="12"/>
       <c r="P2" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q2" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="R2" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="R2" s="20" t="s">
+      <c r="S2" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="T2" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U2" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="V2" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="S2" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="T2" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="U2" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="V2" s="17" t="s">
+      <c r="W2" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="W2" s="16" t="s">
-        <v>70</v>
-      </c>
       <c r="X2" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="45" x14ac:dyDescent="0.25">
@@ -1936,73 +1967,73 @@
         <v>2021</v>
       </c>
       <c r="B3" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="16" t="s">
+      <c r="E3" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="F3" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="17" t="s">
+      <c r="H3" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="I3" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="J3" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="K3" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="L3" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="M3" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="M3" s="18" t="s">
+      <c r="N3" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="O3" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="P3" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="Q3" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="R3" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="P3" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q3" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="R3" s="20" t="s">
-        <v>72</v>
-      </c>
       <c r="S3" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="T3" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="T3" s="16" t="s">
+      <c r="U3" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="U3" s="16" t="s">
-        <v>63</v>
-      </c>
       <c r="V3" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="W3" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="W3" s="16" t="s">
-        <v>70</v>
-      </c>
       <c r="X3" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="45" x14ac:dyDescent="0.25">
@@ -2010,73 +2041,73 @@
         <v>2022</v>
       </c>
       <c r="B4" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="16" t="s">
+      <c r="E4" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="F4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="17" t="s">
+      <c r="H4" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="I4" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="J4" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="K4" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="L4" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="M4" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="M4" s="18" t="s">
+      <c r="N4" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="N4" s="19" t="s">
+      <c r="O4" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="Q4" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="R4" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="P4" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q4" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="R4" s="20" t="s">
-        <v>72</v>
-      </c>
       <c r="S4" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="T4" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="T4" s="16" t="s">
+      <c r="U4" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="U4" s="16" t="s">
-        <v>63</v>
-      </c>
       <c r="V4" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="W4" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="W4" s="16" t="s">
-        <v>70</v>
-      </c>
       <c r="X4" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="45" x14ac:dyDescent="0.25">
@@ -2084,73 +2115,73 @@
         <v>2023</v>
       </c>
       <c r="B5" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="16" t="s">
+      <c r="E5" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="F5" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="17" t="s">
+      <c r="H5" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="I5" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="J5" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="K5" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="L5" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="L5" s="18" t="s">
+      <c r="M5" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="M5" s="18" t="s">
-        <v>56</v>
-      </c>
       <c r="N5" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="P5" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q5" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="R5" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="S5" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="O5" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="P5" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q5" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="R5" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="S5" s="25" t="s">
-        <v>74</v>
-      </c>
       <c r="T5" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U5" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="U5" s="16" t="s">
-        <v>63</v>
-      </c>
       <c r="V5" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="W5" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="W5" s="16" t="s">
-        <v>70</v>
-      </c>
       <c r="X5" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="45" x14ac:dyDescent="0.25">
@@ -2158,73 +2189,73 @@
         <v>2024</v>
       </c>
       <c r="B6" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="18" t="s">
+      <c r="E6" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="F6" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="18" t="s">
+      <c r="H6" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="I6" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="J6" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="K6" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="L6" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="L6" s="18" t="s">
+      <c r="M6" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="M6" s="18" t="s">
-        <v>56</v>
-      </c>
       <c r="N6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="O6" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="P6" s="15" t="s">
-        <v>76</v>
-      </c>
       <c r="Q6" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="R6" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="R6" s="18" t="s">
+      <c r="S6" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="T6" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="U6" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="V6" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="S6" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="T6" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="U6" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="V6" s="18" t="s">
+      <c r="W6" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="W6" s="18" t="s">
-        <v>70</v>
-      </c>
       <c r="X6" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/05_Entregable 3/previo/Diccionarios/MD_18_UPMA_RESCATE DE FAUNA SILVESTRE 2019 AL 2024.xlsx
+++ b/05_Entregable 3/previo/Diccionarios/MD_18_UPMA_RESCATE DE FAUNA SILVESTRE 2019 AL 2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Javi_Angelito\wcs\05_Entregable 3\previo\Diccionarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3D5122-74F0-4689-8C0A-2FDD83257E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B423138A-1313-497C-A15B-66E453D94454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadatos generales" sheetId="1" r:id="rId1"/>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="154">
   <si>
     <t>Elemento</t>
   </si>
@@ -138,9 +138,6 @@
     <t>Diccionario de variables sobre tráfico de vida silvestre</t>
   </si>
   <si>
-    <t>1.0</t>
-  </si>
-  <si>
     <t>Definición</t>
   </si>
   <si>
@@ -499,6 +496,78 @@
   </si>
   <si>
     <t>Nombre propuesto</t>
+  </si>
+  <si>
+    <t>documento_respaldo</t>
+  </si>
+  <si>
+    <t>numero_parte</t>
+  </si>
+  <si>
+    <t>sub_categoria</t>
+  </si>
+  <si>
+    <t>categoria</t>
+  </si>
+  <si>
+    <t>sub_circuito</t>
+  </si>
+  <si>
+    <t>nzona</t>
+  </si>
+  <si>
+    <t>nsub_zona</t>
+  </si>
+  <si>
+    <t>ncanton</t>
+  </si>
+  <si>
+    <t>ndistrito</t>
+  </si>
+  <si>
+    <t>ncircuito</t>
+  </si>
+  <si>
+    <t>nsub_circuito</t>
+  </si>
+  <si>
+    <t>direccion_rescate</t>
+  </si>
+  <si>
+    <t>latitud_rescate</t>
+  </si>
+  <si>
+    <t>longitud_rescate</t>
+  </si>
+  <si>
+    <t>fecha_rescate</t>
+  </si>
+  <si>
+    <t>unidad_rescate</t>
+  </si>
+  <si>
+    <t>tipo_oeprativo</t>
+  </si>
+  <si>
+    <t>hora_inicio</t>
+  </si>
+  <si>
+    <t>hora_final</t>
+  </si>
+  <si>
+    <t>nro_total</t>
+  </si>
+  <si>
+    <t>tipo_1</t>
+  </si>
+  <si>
+    <t>tipo_2</t>
+  </si>
+  <si>
+    <t>nro_total_2</t>
+  </si>
+  <si>
+    <t>2.0</t>
   </si>
 </sst>
 </file>
@@ -544,7 +613,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -566,6 +635,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,7 +672,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -674,6 +749,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -973,8 +1049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,7 +1080,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>10</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1012,7 +1088,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>45721</v>
+        <v>45782</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1053,101 +1129,101 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="8">
         <v>45689</v>
@@ -1155,10 +1231,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1170,9 +1246,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B2" sqref="B2"/>
+      <selection pane="topRight" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1190,362 +1266,388 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>130</v>
-      </c>
       <c r="C1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="27"/>
+        <v>45</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>130</v>
+      </c>
       <c r="C2" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G2" s="27" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="27"/>
+        <v>44</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>131</v>
+      </c>
       <c r="C3" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="27"/>
+        <v>46</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>135</v>
+      </c>
       <c r="C4" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I4" s="27"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="27"/>
+        <v>47</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>136</v>
+      </c>
       <c r="C5" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="27"/>
+        <v>18</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>137</v>
+      </c>
       <c r="C6" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I6" s="27"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="27"/>
+        <v>48</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>134</v>
+      </c>
       <c r="C7" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="27"/>
+        <v>49</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>138</v>
+      </c>
       <c r="C8" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I8" s="27"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="27"/>
+        <v>50</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>139</v>
+      </c>
       <c r="C9" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I9" s="27"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="27"/>
+        <v>51</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>140</v>
+      </c>
       <c r="C10" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I10" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="27"/>
+        <v>52</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>141</v>
+      </c>
       <c r="C11" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="I11" s="27" t="s">
         <v>83</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="H11" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="I11" s="27" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="27"/>
+        <v>53</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>142</v>
+      </c>
       <c r="C12" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H12" s="27">
         <v>0.95684967930316001</v>
       </c>
       <c r="I12" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="27"/>
+        <v>54</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>143</v>
+      </c>
       <c r="C13" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H13" s="27">
         <v>-79.630504846571995</v>
       </c>
       <c r="I13" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="27"/>
+        <v>55</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>144</v>
+      </c>
       <c r="C14" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G14" s="27" t="s">
         <v>6</v>
@@ -1557,70 +1659,76 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" s="27"/>
+        <v>69</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>145</v>
+      </c>
       <c r="C15" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G15" s="27" t="s">
         <v>6</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I15" s="27"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="27"/>
+        <v>56</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>146</v>
+      </c>
       <c r="C16" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G16" s="27" t="s">
         <v>6</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I16" s="27"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="27"/>
+        <v>65</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>147</v>
+      </c>
       <c r="C17" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G17" s="27" t="s">
         <v>6</v>
@@ -1632,20 +1740,22 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="27"/>
+        <v>70</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>148</v>
+      </c>
       <c r="C18" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G18" s="27" t="s">
         <v>6</v>
@@ -1657,20 +1767,22 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" s="27"/>
+        <v>59</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>149</v>
+      </c>
       <c r="C19" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G19" s="27" t="s">
         <v>6</v>
@@ -1682,120 +1794,130 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="27"/>
+        <v>60</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>133</v>
+      </c>
       <c r="C20" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="27" t="s">
-        <v>94</v>
-      </c>
       <c r="E20" s="27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F20" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G20" s="27" t="s">
         <v>6</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I20" s="27"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="27"/>
+        <v>61</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>132</v>
+      </c>
       <c r="C21" s="28"/>
       <c r="D21" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G21" s="27" t="s">
         <v>6</v>
       </c>
       <c r="H21" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I21" s="27"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22" s="27"/>
+        <v>67</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>150</v>
+      </c>
       <c r="C22" s="28"/>
       <c r="D22" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F22" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G22" s="27" t="s">
         <v>6</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I22" s="27"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23" s="27"/>
+        <v>68</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>151</v>
+      </c>
       <c r="C23" s="28"/>
       <c r="D23" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F23" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G23" s="27" t="s">
         <v>6</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I23" s="27"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="27"/>
+      <c r="A24" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>152</v>
+      </c>
       <c r="C24" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G24" s="27" t="s">
         <v>6</v>
       </c>
       <c r="H24" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I24" s="27"/>
     </row>
@@ -1823,71 +1945,71 @@
         <v>2019</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="J1" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="K1" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="L1" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="M1" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="N1" s="19" t="s">
         <v>55</v>
-      </c>
-      <c r="N1" s="19" t="s">
-        <v>56</v>
       </c>
       <c r="O1" s="12"/>
       <c r="P1" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="R1" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="S1" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="S1" s="24" t="s">
+      <c r="T1" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="U1" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="U1" s="16" t="s">
+      <c r="V1" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="V1" s="17" t="s">
+      <c r="W1" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="X1" s="16" t="s">
         <v>64</v>
-      </c>
-      <c r="X1" s="16" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="45" x14ac:dyDescent="0.25">
@@ -1895,71 +2017,71 @@
         <v>2020</v>
       </c>
       <c r="B2" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="16" t="s">
+      <c r="E2" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="F2" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="17" t="s">
+      <c r="H2" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="I2" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="J2" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="K2" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="L2" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="M2" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="N2" s="19" t="s">
         <v>55</v>
-      </c>
-      <c r="N2" s="19" t="s">
-        <v>56</v>
       </c>
       <c r="O2" s="12"/>
       <c r="P2" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q2" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="R2" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="R2" s="20" t="s">
+      <c r="S2" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="T2" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="U2" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="V2" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="S2" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="T2" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="U2" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="V2" s="17" t="s">
+      <c r="W2" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="W2" s="16" t="s">
-        <v>69</v>
-      </c>
       <c r="X2" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="45" x14ac:dyDescent="0.25">
@@ -1967,73 +2089,73 @@
         <v>2021</v>
       </c>
       <c r="B3" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="16" t="s">
+      <c r="E3" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="F3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="17" t="s">
+      <c r="H3" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="I3" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="J3" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="K3" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="L3" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="M3" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="M3" s="18" t="s">
+      <c r="N3" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="O3" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="P3" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="Q3" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="R3" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="P3" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q3" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="R3" s="20" t="s">
-        <v>71</v>
-      </c>
       <c r="S3" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="T3" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="T3" s="16" t="s">
+      <c r="U3" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="U3" s="16" t="s">
-        <v>62</v>
-      </c>
       <c r="V3" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="W3" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="W3" s="16" t="s">
-        <v>69</v>
-      </c>
       <c r="X3" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="45" x14ac:dyDescent="0.25">
@@ -2041,73 +2163,73 @@
         <v>2022</v>
       </c>
       <c r="B4" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="16" t="s">
+      <c r="E4" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="F4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="17" t="s">
+      <c r="H4" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="I4" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="J4" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="K4" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="L4" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="M4" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="M4" s="18" t="s">
+      <c r="N4" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="N4" s="19" t="s">
+      <c r="O4" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="Q4" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="R4" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="P4" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q4" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="R4" s="20" t="s">
-        <v>71</v>
-      </c>
       <c r="S4" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="T4" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="T4" s="16" t="s">
+      <c r="U4" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="U4" s="16" t="s">
-        <v>62</v>
-      </c>
       <c r="V4" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="W4" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="W4" s="16" t="s">
-        <v>69</v>
-      </c>
       <c r="X4" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="45" x14ac:dyDescent="0.25">
@@ -2115,73 +2237,73 @@
         <v>2023</v>
       </c>
       <c r="B5" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="16" t="s">
+      <c r="E5" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="F5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="17" t="s">
+      <c r="H5" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="I5" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="J5" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="K5" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="L5" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="L5" s="18" t="s">
+      <c r="M5" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="M5" s="18" t="s">
-        <v>55</v>
-      </c>
       <c r="N5" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="P5" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q5" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="R5" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="S5" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="O5" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="P5" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q5" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="R5" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="S5" s="25" t="s">
-        <v>73</v>
-      </c>
       <c r="T5" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="U5" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="U5" s="16" t="s">
-        <v>62</v>
-      </c>
       <c r="V5" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="W5" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="W5" s="16" t="s">
-        <v>69</v>
-      </c>
       <c r="X5" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="45" x14ac:dyDescent="0.25">
@@ -2189,73 +2311,73 @@
         <v>2024</v>
       </c>
       <c r="B6" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="18" t="s">
+      <c r="E6" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="F6" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="18" t="s">
+      <c r="H6" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="I6" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="J6" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="K6" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="L6" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="L6" s="18" t="s">
+      <c r="M6" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="M6" s="18" t="s">
-        <v>55</v>
-      </c>
       <c r="N6" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="P6" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="O6" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="P6" s="15" t="s">
-        <v>75</v>
-      </c>
       <c r="Q6" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="R6" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="R6" s="18" t="s">
+      <c r="S6" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="T6" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="U6" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="V6" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="S6" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="T6" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="U6" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="V6" s="18" t="s">
+      <c r="W6" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="W6" s="18" t="s">
-        <v>69</v>
-      </c>
       <c r="X6" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
